--- a/financial_models/opportunities/3606.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/3606.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A94CC-2462-2444-989E-80CB32F2FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A044171-697A-EC4C-9682-216FF70D274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>C0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -3581,7 +3584,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3634,7 +3637,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -4978,7 +4981,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>

--- a/financial_models/opportunities/3606.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/3606.HK_Valuation_v1.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A044171-697A-EC4C-9682-216FF70D274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BD0C8A-5561-4576-B141-6377DCDE030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -968,6 +954,10 @@
   </si>
   <si>
     <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,19 +965,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1524,7 +1514,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1580,8 +1570,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1604,14 +1594,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1641,7 +1631,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1743,7 +1733,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1771,7 +1761,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,10 +1814,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1863,7 +1853,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,16 +1883,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1923,7 +1913,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,10 +1935,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,10 +1947,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,7 +1967,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,13 +1979,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2033,7 +2023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,19 +2067,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2114,7 +2104,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,10 +2116,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2160,19 +2150,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2181,7 +2171,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2195,7 +2185,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2208,14 +2198,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2411,7 +2401,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2473,7 +2463,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2745,7 +2735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2775,7 +2765,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3587,182 +3577,182 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="188" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="189">
         <v>45633</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="191" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="267"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="192" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="193">
         <v>2609743532</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="242" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="240" t="s">
-        <v>240</v>
-      </c>
       <c r="C19" s="242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3809,9 +3799,9 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="149">
         <v>33160996</v>
@@ -3833,9 +3823,9 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="150">
         <v>21424326</v>
@@ -3857,9 +3847,9 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="150">
         <v>1734137</v>
@@ -3881,9 +3871,9 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3897,9 +3887,9 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -3913,9 +3903,9 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -3929,9 +3919,9 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3945,9 +3935,9 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3961,9 +3951,9 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -3977,9 +3967,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3993,9 +3983,9 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4009,9 +3999,9 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4025,9 +4015,9 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="217"/>
       <c r="D37" s="150"/>
@@ -4041,9 +4031,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4057,9 +4047,9 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="217"/>
       <c r="D39" s="150"/>
@@ -4073,9 +4063,9 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="217"/>
       <c r="D40" s="150"/>
@@ -4089,9 +4079,9 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4105,9 +4095,9 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4121,9 +4111,9 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4137,9 +4127,9 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="250">
         <f>1.3</f>
@@ -4158,17 +4148,17 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6697196606897861E-2</v>
+        <v>2.6284837782814475E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.5670381352786407E-2</v>
+        <v>2.5273882483475452E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4207,23 +4197,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4231,9 +4221,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4241,9 +4231,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4252,9 +4242,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4262,9 +4252,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4272,9 +4262,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4283,9 +4273,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4293,9 +4283,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4304,9 +4294,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4314,24 +4304,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4340,9 +4330,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4351,9 +4341,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4362,9 +4352,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4373,9 +4363,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4384,9 +4374,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4395,9 +4385,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4405,33 +4395,33 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4439,12 +4429,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4453,9 +4443,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4464,9 +4454,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4474,9 +4464,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4485,9 +4475,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4495,106 +4485,106 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="59"/>
+    </row>
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="59"/>
-    </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
-        <v>67</v>
-      </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="271">
         <f>C24</f>
@@ -4602,32 +4592,32 @@
       </c>
       <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="272"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4643,9 +4633,9 @@
         <v>33160996</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4664,9 +4654,9 @@
         <v>21424326</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4685,9 +4675,9 @@
         <v>1734137</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4703,9 +4693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4724,9 +4714,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4742,9 +4732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4760,9 +4750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4852,19 +4842,19 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4873,7 +4863,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4888,9 +4878,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
@@ -4902,15 +4892,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>52.15</v>
+        <v>52.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
@@ -4919,7 +4909,7 @@
       <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="283">
         <f>Inputs!C10</f>
@@ -4928,9 +4918,9 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="281">
         <f>Inputs!C6</f>
@@ -4939,19 +4929,19 @@
       <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>136098.12519379999</v>
+        <v>138185.92001939999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="185">
         <f>Inputs!C7</f>
@@ -4966,7 +4956,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
@@ -4975,9 +4965,9 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4989,53 +4979,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0709683100382488</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="174">
         <v>0.08</v>
@@ -5045,32 +5035,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5080,52 +5070,52 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="175">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.646070039633309</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5134,155 +5124,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.939643497486813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17.20539409982009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.45224099290316433</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.30163548163631754</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6697196606897861E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.6284837782814475E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="273" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.259324252400283</v>
+        <v>26.137522965305173</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>47.304508674584632</v>
+        <v>47.085091374025595</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.893322649882688</v>
+        <v>30.750027018006087</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>41.13435536920403</v>
+        <v>40.943557716543999</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5290,962 +5280,962 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6320,7 +6310,7 @@
       <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6328,7 +6318,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6336,24 +6326,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6361,17 +6351,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6390,10 +6380,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6404,7 +6394,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6412,10 +6402,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6462,10 +6452,10 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6513,10 +6503,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6564,10 +6554,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6615,10 +6605,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6666,10 +6656,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6717,10 +6707,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6768,10 +6758,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="199" t="str">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6819,10 +6809,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6870,10 +6860,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6921,10 +6911,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6972,10 +6962,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7023,10 +7013,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7074,10 +7064,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7125,10 +7115,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7176,10 +7166,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7227,10 +7217,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7278,10 +7268,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7329,10 +7319,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7380,10 +7370,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7431,10 +7421,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7482,10 +7472,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7533,10 +7523,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7584,10 +7574,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7635,10 +7625,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7686,10 +7676,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7737,10 +7727,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7788,10 +7778,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7839,10 +7829,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7890,10 +7880,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7941,10 +7931,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7992,10 +7982,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8043,10 +8033,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8094,10 +8084,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8145,10 +8135,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8196,10 +8186,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8247,10 +8237,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8265,10 +8255,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8316,10 +8306,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8367,10 +8357,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8418,10 +8408,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8469,10 +8459,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8520,10 +8510,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8571,10 +8561,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8622,10 +8612,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8640,10 +8630,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8691,10 +8681,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8742,10 +8732,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8759,10 +8749,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8809,10 +8799,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8859,10 +8849,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="153" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8909,10 +8899,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -8959,1260 +8949,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10256,7 +10246,7 @@
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10264,14 +10254,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10281,12 +10271,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10300,7 +10290,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10308,9 +10298,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10324,14 +10314,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10339,9 +10329,9 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10355,7 +10345,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10364,9 +10354,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10378,7 +10368,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10387,16 +10377,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10413,34 +10403,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10457,7 +10447,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10466,9 +10456,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10485,7 +10475,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10494,9 +10484,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10513,7 +10503,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10522,9 +10512,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10541,7 +10531,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10550,9 +10540,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10569,7 +10559,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10577,9 +10567,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10599,9 +10589,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10621,9 +10611,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10642,9 +10632,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10667,9 +10657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10694,9 +10684,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10715,9 +10705,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10734,25 +10724,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10772,9 +10762,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10794,16 +10784,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10823,7 +10813,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10834,9 +10824,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10856,7 +10846,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10867,9 +10857,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10886,7 +10876,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
@@ -10897,21 +10887,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10927,7 +10917,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10935,9 +10925,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10954,7 +10944,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10962,9 +10952,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10981,7 +10971,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10989,9 +10979,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11011,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11019,9 +11009,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11038,7 +11028,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11046,9 +11036,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11072,9 +11062,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11099,9 +11089,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11126,9 +11116,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11147,9 +11137,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11168,9 +11158,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11189,9 +11179,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11210,9 +11200,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11229,14 +11219,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11245,9 +11235,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11264,9 +11254,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11283,9 +11273,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11302,7 +11292,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11313,9 +11303,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11332,7 +11322,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11343,9 +11333,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11362,7 +11352,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11370,9 +11360,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11389,7 +11379,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11397,22 +11387,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11424,12 +11414,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11448,7 +11438,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11457,9 +11447,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11468,9 +11458,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="284">
@@ -11483,9 +11473,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="283">
@@ -11496,12 +11486,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="283">
@@ -11514,7 +11504,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11523,13 +11513,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11537,9 +11527,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11558,9 +11548,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11579,9 +11569,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11600,9 +11590,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11615,9 +11605,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11636,7 +11626,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11646,13 +11636,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11660,9 +11650,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11681,9 +11671,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11696,9 +11686,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11717,10 +11707,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="271">
         <f>Data!C5</f>
@@ -11728,39 +11718,39 @@
       </c>
       <c r="D72" s="271"/>
       <c r="E72" s="285" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="285"/>
       <c r="H72" s="285" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="272"/>
       <c r="E73" s="286" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="272"/>
       <c r="H73" s="286" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11779,9 +11769,9 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11809,9 +11799,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11830,9 +11820,9 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11860,9 +11850,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11890,9 +11880,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11921,9 +11911,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11950,12 +11940,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11983,9 +11973,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12013,9 +12003,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12043,9 +12033,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12064,9 +12054,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12095,9 +12085,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12116,30 +12106,30 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9033119566439599E-2</v>
+        <v>5.8121307434071311E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9033119566439599E-2</v>
+        <v>5.8121307434071311E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9033119566439599E-2</v>
+        <v>5.8121307434071311E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12167,32 +12157,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6697196606897861E-2</v>
+        <v>2.6284837782814475E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6697196606897861E-2</v>
+        <v>2.6284837782814475E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6697196606897861E-2</v>
+        <v>2.6284837782814475E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12200,32 +12190,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="285" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="285"/>
       <c r="G92" s="87"/>
       <c r="H92" s="285" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12239,24 +12229,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.137506557598073</v>
+        <v>61.849287858485724</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.137506557598073</v>
+        <v>61.849287858485724</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12267,26 +12257,26 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.065113700480563</v>
+        <v>24.008603187336195</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>24.065113700480563</v>
+        <v>24.008603187336195</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12297,51 +12287,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80623648.967520446</v>
+        <v>80249684.119066641</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.893322649882688</v>
+        <v>30.75002701800609</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.893322649882688</v>
+        <v>30.75002701800609</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.13435536920403</v>
+        <v>40.943557716543999</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12357,9 +12347,9 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12378,164 +12368,164 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>80623648.967520446</v>
+        <v>80249684.119066641</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.259324252400283</v>
+        <v>26.137522965305173</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>30.893322649882688</v>
+        <v>30.75002701800609</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.893322649882688</v>
+        <v>30.750027018006087</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.893322649882688</v>
+        <v>30.750027018006087</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>41.13435536920403</v>
+        <v>40.943557716543999</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>31224575.732734568</v>
+        <v>31151253.12893001</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.169922464559013</v>
+        <v>10.146041108989138</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.964614664187074</v>
+        <v>11.936518951751927</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.964614664187074</v>
+        <v>11.936518951751927</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.964614664187074</v>
+        <v>11.936518951751927</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.9308442484457</v>
+        <v>15.893434901683101</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>55924112.350127503</v>
+        <v>55700468.623998322</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>18.214623358479649</v>
+        <v>18.141782037147156</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>21.428968657034879</v>
+        <v>21.343272984879007</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>21.428968657034879</v>
+        <v>21.343272984879007</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>21.428968657034879</v>
+        <v>21.343272984879007</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>28.532599808824866</v>
+        <v>28.41849630911355</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
